--- a/biology/Zoologie/Cyclophiops_hamptoni/Cyclophiops_hamptoni.xlsx
+++ b/biology/Zoologie/Cyclophiops_hamptoni/Cyclophiops_hamptoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyclophiops hamptoni est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyclophiops hamptoni est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Birmanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Birmanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyclophiops hamptoni[1] n'est connue que de son holotype, une femelle mesurant 105 cm[2] dont 22 cm pour la queue. Son dos est uniformément vert et sa face ventrale blanchâtre. Dans sa description Boulenger indique que cette espèce est très proche de Cyclophiops doriae mais s'en différencie par un bouclier rostral plus large.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyclophiops hamptoni n'est connue que de son holotype, une femelle mesurant 105 cm dont 22 cm pour la queue. Son dos est uniformément vert et sa face ventrale blanchâtre. Dans sa description Boulenger indique que cette espèce est très proche de Cyclophiops doriae mais s'en différencie par un bouclier rostral plus large.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en l'honneur de Herbert Hampton qui a découvert, dans les environs de Mandalay, le spécimen décrit.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1900 : Description of a new snake of the genus Ablabes from Burma. Annals and Magazine of Natural History, ser. 7, vol. 6, p. 409 (texte intégral).</t>
         </is>
